--- a/Win32/Release/Docs/pr.xlsx
+++ b/Win32/Release/Docs/pr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6945" windowHeight="3240" tabRatio="936" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6945" windowHeight="3240" tabRatio="936" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Программа минимум" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Спортивное питание" sheetId="7" r:id="rId6"/>
     <sheet name="Детское здоровье" sheetId="9" r:id="rId7"/>
     <sheet name="Эко средства для дома гринпин" sheetId="10" r:id="rId8"/>
-    <sheet name="Стадии" sheetId="3" r:id="rId9"/>
+    <sheet name="Схема компл примен БАД" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1433,7 +1433,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1943,7 +1943,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -3354,8 +3354,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
